--- a/PostCC/CompAnalysisCC.xlsx
+++ b/PostCC/CompAnalysisCC.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/My PhD Work/Data Analysis/postQ/PostCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DD754080-8476-CD47-8BFD-81DE27B82ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{317A860F-5CDD-E247-9976-EF05A5A28BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="500" windowWidth="27240" windowHeight="15420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompAnalysisCC" sheetId="1" r:id="rId1"/>
     <sheet name="Modified Table" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CompAnalysisCC!$A$1:$N$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Modified Table'!$A$1:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -170,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -832,100 +837,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>Q08</c:v>
+                  <c:v>Q22post</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Q08post</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q09</c:v>
+                  <c:v>Q22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q09Post</c:v>
+                  <c:v>Q15post</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q10post</c:v>
+                  <c:v>Q08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q11</c:v>
+                  <c:v>Q17post</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q11post</c:v>
+                  <c:v>Q12post</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Q12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q12post</c:v>
+                  <c:v>Q15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q13</c:v>
+                  <c:v>Q20post</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Q19post</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q21post</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q10post</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q09Post</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q18post</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q11post</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q16post</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Q13post</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q14Post</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q15post</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Q16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q16post</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Q17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Q17post</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Q18post</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Q19post</c:v>
+                  <c:v>Q21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Q20</c:v>
+                  <c:v>Q14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Q20post</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Q21</c:v>
+                  <c:v>Q24post</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Q21post</c:v>
+                  <c:v>Q24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Q22</c:v>
+                  <c:v>Q13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Q22post</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Q24</c:v>
+                  <c:v>Q14Post</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Q24post</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -934,55 +939,55 @@
             <c:numRef>
               <c:f>CompAnalysisCC!$D$2:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.76261127596439204</c:v>
+                  <c:v>0.91104294478527603</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88269794721407602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59643916913946604</c:v>
+                  <c:v>0.84565916398713803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62706270627062699</c:v>
+                  <c:v>0.79598662207357895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61654135338345895</c:v>
+                  <c:v>0.78041543026706195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68686868686868696</c:v>
+                  <c:v>0.76261127596439204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41297935103244798</c:v>
+                  <c:v>0.76119402985074602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58507462686567202</c:v>
+                  <c:v>0.73053892215568905</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.72566371681415898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73053892215568905</c:v>
+                  <c:v>0.71935483870967698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41839762611275999</c:v>
+                  <c:v>0.70746268656716405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57014925373134295</c:v>
+                  <c:v>0.69760479041916201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53958944281524901</c:v>
+                  <c:v>0.68955223880597005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35451505016722401</c:v>
+                  <c:v>0.68686868686868696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71935483870967698</c:v>
+                  <c:v>0.65191740412979304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79598662207357895</c:v>
+                  <c:v>0.62706270627062699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,100 +1042,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>Q08</c:v>
+                  <c:v>Q22post</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Q08post</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q09</c:v>
+                  <c:v>Q22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q09Post</c:v>
+                  <c:v>Q15post</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q10post</c:v>
+                  <c:v>Q08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q11</c:v>
+                  <c:v>Q17post</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q11post</c:v>
+                  <c:v>Q12post</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Q12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q12post</c:v>
+                  <c:v>Q15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q13</c:v>
+                  <c:v>Q20post</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Q19post</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q21post</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q10post</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q09Post</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q18post</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q11post</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q16post</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Q13post</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q14Post</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q15post</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Q16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q16post</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Q17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Q17post</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Q18post</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Q19post</c:v>
+                  <c:v>Q21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Q20</c:v>
+                  <c:v>Q14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Q20post</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Q21</c:v>
+                  <c:v>Q24post</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Q21post</c:v>
+                  <c:v>Q24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Q22</c:v>
+                  <c:v>Q13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Q22post</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Q24</c:v>
+                  <c:v>Q14Post</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Q24post</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,55 +1144,55 @@
             <c:numRef>
               <c:f>CompAnalysisCC!$D$18:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.33827893175074197</c:v>
+                  <c:v>0.61791044776119397</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.61654135338345895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59643916913946604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58507462686567202</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.57611940298507502</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78041543026706195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76119402985074602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61791044776119397</c:v>
+                  <c:v>0.57014925373134295</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.56083086053412501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69760479041916201</c:v>
+                  <c:v>0.55917159763313595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65191740412979304</c:v>
+                  <c:v>0.53958944281524901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70746268656716405</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55917159763313595</c:v>
+                  <c:v>0.495522388059702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68955223880597005</c:v>
+                  <c:v>0.46902654867256599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84565916398713803</c:v>
+                  <c:v>0.41839762611275999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91104294478527603</c:v>
+                  <c:v>0.41297935103244798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46902654867256599</c:v>
+                  <c:v>0.35451505016722401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.495522388059702</c:v>
+                  <c:v>0.33827893175074197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1205,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1284,7 +1288,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1402,7 +1406,653 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparative Anlaysis Between Means of Pre and Post Values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PreValues</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Modified Table'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modified Table'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.76261127596439204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59643916913946604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61654135338345895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41297935103244798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72566371681415898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41839762611275999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53958944281524901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71935483870967698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33827893175074197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78041543026706195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56083086053412501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65191740412979304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55917159763313595</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84565916398713803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46902654867256599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0611-4B43-ADA9-A78368391723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PostValues</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Modified Table'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Modified Table'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.88269794721407602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62706270627062699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68686868686868696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58507462686567202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73053892215568905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57014925373134295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35451505016722401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79598662207357895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57611940298507502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76119402985074602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61791044776119397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69760479041916201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70746268656716405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68955223880597005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91104294478527603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.495522388059702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0611-4B43-ADA9-A78368391723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1302256880"/>
+        <c:axId val="1302075696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1302256880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302075696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302075696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302256880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89682905490472231"/>
+          <c:y val="0.45663911088420678"/>
+          <c:w val="9.5040863794464719E-2"/>
+          <c:h val="0.12404107840634634"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1958,6 +2608,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1979,6 +3145,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A65639-B648-D449-8531-F589466D6B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226017</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C324033F-1EAE-284D-9B09-78E020FC88C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,14 +3502,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="14" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2311,82 +3521,82 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>337</v>
-      </c>
-      <c r="D2">
-        <v>0.76261127596439204</v>
-      </c>
-      <c r="E2">
-        <v>0.42611514092420499</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.82656826568265696</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>-1.22892612287853</v>
-      </c>
-      <c r="M2">
-        <v>-0.49117167769894299</v>
-      </c>
-      <c r="N2">
-        <v>2.3211970801744801E-2</v>
+        <v>326</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.91104294478527603</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.28511938335626302</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2.8744596178117798</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6.28181566716591</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.5791302137788302E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2399,302 +3609,302 @@
       <c r="C3">
         <v>341</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.88269794721407602</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.32225272274924699</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.97802197802197799</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>-2.3681765205184</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>3.6188984120006502</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>1.7450963330744099E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>337</v>
-      </c>
-      <c r="D4">
-        <v>0.59643916913946604</v>
-      </c>
-      <c r="E4">
-        <v>0.43341022784893901</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.61992619926199299</v>
-      </c>
-      <c r="H4">
-        <v>0.74129999999999996</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>-0.38043422869489002</v>
-      </c>
-      <c r="M4">
-        <v>-1.5672012042646599</v>
-      </c>
-      <c r="N4">
-        <v>2.36093595082945E-2</v>
+        <v>311</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.84565916398713803</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.36185739425725899</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.93172690763052202</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1.9043287504855699</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.6317457446135299</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.0519050342084798E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>303</v>
-      </c>
-      <c r="D5">
-        <v>0.62706270627062699</v>
-      </c>
-      <c r="E5">
-        <v>0.484385614162127</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.65843621399176999</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>-0.52290304956356104</v>
-      </c>
-      <c r="M5">
-        <v>-1.7322567792433401</v>
-      </c>
-      <c r="N5">
-        <v>2.7827226452469801E-2</v>
+        <v>299</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79598662207357895</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.40365438048017399</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.86721991701244805</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1.4616301198550401</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.13685383165176199</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.33439355585267E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>266</v>
-      </c>
-      <c r="D6">
-        <v>0.61654135338345895</v>
-      </c>
-      <c r="E6">
-        <v>0.48714500590071802</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.644859813084112</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>-0.476668041706092</v>
-      </c>
-      <c r="M6">
-        <v>-1.7794348365655299</v>
-      </c>
-      <c r="N6">
-        <v>2.9868776715136599E-2</v>
+        <v>337</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.78041543026706195</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.41458076156092499</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.84870848708487101</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.3487521029655301</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-0.181379593593713</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.2583653121185501E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>297</v>
-      </c>
-      <c r="D7">
-        <v>0.68686868686868696</v>
-      </c>
-      <c r="E7">
-        <v>0.46455001432215598</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.73221757322175696</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>-0.80180602143587099</v>
-      </c>
-      <c r="M7">
-        <v>-1.3616578385520199</v>
-      </c>
-      <c r="N7">
-        <v>2.69559258557956E-2</v>
+        <v>337</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.76261127596439204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.42611514092420499</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.82656826568265696</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1.22892612287853</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.49117167769894299</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.3211970801744801E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>339</v>
-      </c>
-      <c r="D8">
-        <v>0.41297935103244798</v>
-      </c>
-      <c r="E8">
-        <v>0.493096996037649</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.39194139194139199</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.35191433565892899</v>
-      </c>
-      <c r="M8">
-        <v>-1.8816809022644401</v>
-      </c>
-      <c r="N8">
-        <v>2.67813526186895E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.76119402985074602</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.42699171340617798</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.82527881040892204</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1.2197629977508699</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.51368491170136998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.3329049428053202E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>335</v>
-      </c>
-      <c r="D9">
-        <v>0.58507462686567202</v>
-      </c>
-      <c r="E9">
-        <v>0.49344618867789802</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.60594795539033497</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>-0.34378894680648697</v>
-      </c>
-      <c r="M9">
-        <v>-1.88741653384663</v>
-      </c>
-      <c r="N9">
-        <v>2.69598452717527E-2</v>
+        <v>334</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.73053892215568905</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.44434553214133898</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.787313432835821</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1.0345493281057601</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.93247265653242495</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.4313505766889201E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2707,610 +3917,610 @@
       <c r="C10">
         <v>339</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.72566371681415898</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.44683875036478699</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.78021978021978</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
         <v>-1.00706593575248</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>-0.98870866656518996</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>2.4268949584718699E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>334</v>
-      </c>
-      <c r="D11">
-        <v>0.73053892215568905</v>
-      </c>
-      <c r="E11">
-        <v>0.44434553214133898</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.787313432835821</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>-1.0345493281057601</v>
-      </c>
-      <c r="M11">
-        <v>-0.93247265653242495</v>
-      </c>
-      <c r="N11">
-        <v>2.4313505766889201E-2</v>
+        <v>310</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.71935483870967698</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.450040886196305</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.97167723716730303</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1.05922903069727</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.5560604721022801E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>337</v>
-      </c>
-      <c r="D12">
-        <v>0.41839762611275999</v>
-      </c>
-      <c r="E12">
-        <v>0.49402963666070698</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.398523985239852</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.32937388491300301</v>
-      </c>
-      <c r="M12">
-        <v>-1.8971158783778099</v>
-      </c>
-      <c r="N12">
-        <v>2.69115091205001E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.70746268656716405</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.403322070392651</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.75836431226765799</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.88410905267808704</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-0.89481040941990397</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.2035838683043599E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>335</v>
-      </c>
-      <c r="D13">
-        <v>0.57014925373134295</v>
-      </c>
-      <c r="E13">
-        <v>0.49579517132392897</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.58736059479553904</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>-0.28213204572838002</v>
-      </c>
-      <c r="M13">
-        <v>-1.9261244285203101</v>
-      </c>
-      <c r="N13">
-        <v>2.7088183903473999E-2</v>
+        <v>334</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.69760479041916201</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.459984605540599</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-0.85660762093801701</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1.2699989102131599</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.5169237790229899E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>341</v>
-      </c>
-      <c r="D14">
-        <v>0.53958944281524901</v>
-      </c>
-      <c r="E14">
-        <v>0.47809530960331398</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.54945054945054905</v>
-      </c>
-      <c r="H14">
-        <v>0.74129999999999996</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>-0.15769082438415899</v>
-      </c>
-      <c r="M14">
-        <v>-1.8908120649799101</v>
-      </c>
-      <c r="N14">
-        <v>2.58903125637212E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.68955223880597005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.413881266912698</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.73605947955390305</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.79751538015577395</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1.0765319556689199</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.2612749217376001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>0.35451505016722401</v>
-      </c>
-      <c r="E15">
-        <v>0.47916805938537699</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.31950207468879699</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.60520886254477102</v>
-      </c>
-      <c r="M15">
-        <v>-1.6391708903262501</v>
-      </c>
-      <c r="N15">
-        <v>2.7711004366385E-2</v>
+        <v>297</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.68686868686868696</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.46455001432215598</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.73221757322175696</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.80180602143587099</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1.3616578385520199</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.69559258557956E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>310</v>
-      </c>
-      <c r="D16">
-        <v>0.71935483870967698</v>
-      </c>
-      <c r="E16">
-        <v>0.450040886196305</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.77419354838709697</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>-0.97167723716730303</v>
-      </c>
-      <c r="M16">
-        <v>-1.05922903069727</v>
-      </c>
-      <c r="N16">
-        <v>2.5560604721022801E-2</v>
+        <v>339</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.65191740412979304</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.41753805654179299</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.68864468864468897</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.61472179475541899</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1.2952205688681</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.2677554342907202E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>0.79598662207357895</v>
-      </c>
-      <c r="E17">
-        <v>0.40365438048017399</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.86721991701244805</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>-1.4616301198550401</v>
-      </c>
-      <c r="M17">
-        <v>0.13685383165176199</v>
-      </c>
-      <c r="N17">
-        <v>2.33439355585267E-2</v>
+        <v>303</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.62706270627062699</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.484385614162127</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.65843621399176999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.52290304956356104</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1.7322567792433401</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.7827226452469801E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>337</v>
-      </c>
-      <c r="D18">
-        <v>0.33827893175074197</v>
-      </c>
-      <c r="E18">
-        <v>0.47382750584875899</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.29889298892988903</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.68059022232114896</v>
-      </c>
-      <c r="M18">
-        <v>-1.54134428165391</v>
-      </c>
-      <c r="N18">
-        <v>2.5811028932157299E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.61791044776119397</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.48662511642170098</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.64684014869888495</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.48315827649745002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-1.77182039053058</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.6587170283407499E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>335</v>
-      </c>
-      <c r="D19">
-        <v>0.57611940298507502</v>
-      </c>
-      <c r="E19">
-        <v>0.49491109473143302</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.59479553903345705</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>-0.30669015786681902</v>
-      </c>
-      <c r="M19">
-        <v>-1.9116207723187</v>
-      </c>
-      <c r="N19">
-        <v>2.7039881639338698E-2</v>
+        <v>266</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.61654135338345895</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.48714500590071802</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.644859813084112</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-0.476668041706092</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-1.7794348365655299</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.9868776715136599E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>337</v>
       </c>
-      <c r="D20">
-        <v>0.78041543026706195</v>
-      </c>
-      <c r="E20">
-        <v>0.41458076156092499</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.84870848708487101</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>-1.3487521029655301</v>
-      </c>
-      <c r="M20">
-        <v>-0.181379593593713</v>
-      </c>
-      <c r="N20">
-        <v>2.2583653121185501E-2</v>
+      <c r="D20" s="1">
+        <v>0.59643916913946604</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.43341022784893901</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.61992619926199299</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-0.38043422869489002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-1.5672012042646599</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.36093595082945E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>335</v>
       </c>
-      <c r="D21">
-        <v>0.76119402985074602</v>
-      </c>
-      <c r="E21">
-        <v>0.42699171340617798</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.82527881040892204</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>-1.2197629977508699</v>
-      </c>
-      <c r="M21">
-        <v>-0.51368491170136998</v>
-      </c>
-      <c r="N21">
-        <v>2.3329049428053202E-2</v>
+      <c r="D21" s="1">
+        <v>0.58507462686567202</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.49344618867789802</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.60594795539033497</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-0.34378894680648697</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-1.88741653384663</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.69598452717527E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
       <c r="C22">
-        <v>336</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
-      </c>
-      <c r="E22">
-        <v>0.50074571256947997</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-      <c r="G22">
-        <v>0.5</v>
-      </c>
-      <c r="H22">
-        <v>0.74129999999999996</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>-2.0059435232426299</v>
-      </c>
-      <c r="N22">
-        <v>2.73179182354076E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.57611940298507502</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.49491109473143302</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.59479553903345705</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-0.30669015786681902</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-1.9116207723187</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.7039881639338698E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>335</v>
       </c>
-      <c r="D23">
-        <v>0.61791044776119397</v>
-      </c>
-      <c r="E23">
-        <v>0.48662511642170098</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.64684014869888495</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>-0.48315827649745002</v>
-      </c>
-      <c r="M23">
-        <v>-1.77182039053058</v>
-      </c>
-      <c r="N23">
-        <v>2.6587170283407499E-2</v>
+      <c r="D23" s="1">
+        <v>0.57014925373134295</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.49579517132392897</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.58736059479553904</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.28213204572838002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-1.9261244285203101</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.7088183903473999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3323,437 +4533,442 @@
       <c r="C24">
         <v>337</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.56083086053412501</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.49702378308241402</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>0.57564575645756499</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>-0.24405413018038899</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>-1.9461862253205</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>2.7074610668983201E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>334</v>
-      </c>
-      <c r="D25">
-        <v>0.69760479041916201</v>
-      </c>
-      <c r="E25">
-        <v>0.459984605540599</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.74626865671641796</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>-0.85660762093801701</v>
-      </c>
-      <c r="M25">
-        <v>-1.2699989102131599</v>
-      </c>
-      <c r="N25">
-        <v>2.5169237790229899E-2</v>
+        <v>338</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.55917159763313595</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.45188877615607798</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.57352941176470595</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.23360216957613</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-1.73887326990975</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.4579509074004E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>339</v>
-      </c>
-      <c r="D26">
-        <v>0.65191740412979304</v>
-      </c>
-      <c r="E26">
-        <v>0.41753805654179299</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.68864468864468897</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>-0.61472179475541899</v>
-      </c>
-      <c r="M26">
-        <v>-1.2952205688681</v>
-      </c>
-      <c r="N26">
-        <v>2.2677554342907202E-2</v>
+        <v>341</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.53958944281524901</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.47809530960331398</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.54945054945054905</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-0.15769082438415899</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-1.8908120649799101</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2.58903125637212E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>335</v>
-      </c>
-      <c r="D27">
-        <v>0.70746268656716405</v>
-      </c>
-      <c r="E27">
-        <v>0.403322070392651</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.75836431226765799</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>-0.88410905267808704</v>
-      </c>
-      <c r="M27">
-        <v>-0.89481040941990397</v>
-      </c>
-      <c r="N27">
-        <v>2.2035838683043599E-2</v>
+        <v>336</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.50074571256947997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-2.0059435232426299</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2.73179182354076E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>338</v>
-      </c>
-      <c r="D28">
-        <v>0.55917159763313595</v>
-      </c>
-      <c r="E28">
-        <v>0.45188877615607798</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0.57352941176470595</v>
-      </c>
-      <c r="H28">
-        <v>0.74129999999999996</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>-0.23360216957613</v>
-      </c>
-      <c r="M28">
-        <v>-1.73887326990975</v>
-      </c>
-      <c r="N28">
-        <v>2.4579509074004E-2</v>
+        <v>335</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.495522388059702</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.50072786417209902</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.49442379182156099</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.7831026607188102E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-2.0056423411406699</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2.73576857032874E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>335</v>
-      </c>
-      <c r="D29">
-        <v>0.68955223880597005</v>
-      </c>
-      <c r="E29">
-        <v>0.413881266912698</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.73605947955390305</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>-0.79751538015577395</v>
-      </c>
-      <c r="M29">
-        <v>-1.0765319556689199</v>
-      </c>
-      <c r="N29">
-        <v>2.2612749217376001E-2</v>
+        <v>339</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.46902654867256599</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.49977740240611601</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.123583355572682</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-1.99057297167609</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.7144182487919499E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>311</v>
-      </c>
-      <c r="D30">
-        <v>0.84565916398713803</v>
-      </c>
-      <c r="E30">
-        <v>0.36185739425725899</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.93172690763052202</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>-1.9043287504855699</v>
-      </c>
-      <c r="M30">
-        <v>1.6317457446135299</v>
-      </c>
-      <c r="N30">
-        <v>2.0519050342084798E-2</v>
+        <v>337</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.41839762611275999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.49402963666070698</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.398523985239852</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.32937388491300301</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-1.8971158783778099</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2.69115091205001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>326</v>
-      </c>
-      <c r="D31">
-        <v>0.91104294478527603</v>
-      </c>
-      <c r="E31">
-        <v>0.28511938335626302</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>-2.8744596178117798</v>
-      </c>
-      <c r="M31">
-        <v>6.28181566716591</v>
-      </c>
-      <c r="N31">
-        <v>1.5791302137788302E-2</v>
+        <v>339</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.41297935103244798</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.493096996037649</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.39194139194139199</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.35191433565892899</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-1.8816809022644401</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2.67813526186895E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>339</v>
-      </c>
-      <c r="D32">
-        <v>0.46902654867256599</v>
-      </c>
-      <c r="E32">
-        <v>0.49977740240611601</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.123583355572682</v>
-      </c>
-      <c r="M32">
-        <v>-1.99057297167609</v>
-      </c>
-      <c r="N32">
-        <v>2.7144182487919499E-2</v>
+        <v>299</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.35451505016722401</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.47916805938537699</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.31950207468879699</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.60520886254477102</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-1.6391708903262501</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.7711004366385E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>335</v>
-      </c>
-      <c r="D33">
-        <v>0.495522388059702</v>
-      </c>
-      <c r="E33">
-        <v>0.50072786417209902</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0.49442379182156099</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1.7831026607188102E-2</v>
-      </c>
-      <c r="M33">
-        <v>-2.0056423411406699</v>
-      </c>
-      <c r="N33">
-        <v>2.73576857032874E-2</v>
+        <v>337</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.33827893175074197</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.47382750584875899</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.29889298892988903</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.68059022232114896</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1.54134428165391</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2.5811028932157299E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N33" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N33">
+      <sortCondition descending="1" ref="D1:D33"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N33">
     <sortCondition ref="A23:A33"/>
   </sortState>
@@ -3763,11 +4978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3790,6 +5005,9 @@
       <c r="B2" s="1">
         <v>0.76261127596439204</v>
       </c>
+      <c r="C2" s="1">
+        <v>0.88269794721407602</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3798,6 +5016,9 @@
       <c r="B3" s="1">
         <v>0.59643916913946604</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.62706270627062699</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3806,6 +5027,9 @@
       <c r="B4" s="1">
         <v>0.61654135338345895</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.68686868686868696</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3814,6 +5038,9 @@
       <c r="B5" s="1">
         <v>0.41297935103244798</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.58507462686567202</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3822,6 +5049,9 @@
       <c r="B6" s="1">
         <v>0.72566371681415898</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.73053892215568905</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3830,6 +5060,9 @@
       <c r="B7" s="1">
         <v>0.41839762611275999</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.57014925373134295</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3838,6 +5071,9 @@
       <c r="B8" s="1">
         <v>0.53958944281524901</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.35451505016722401</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3846,6 +5082,9 @@
       <c r="B9" s="1">
         <v>0.71935483870967698</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.79598662207357895</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3854,6 +5093,9 @@
       <c r="B10" s="1">
         <v>0.33827893175074197</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.57611940298507502</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3862,6 +5104,9 @@
       <c r="B11" s="1">
         <v>0.78041543026706195</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.76119402985074602</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3870,6 +5115,9 @@
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.61791044776119397</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3878,6 +5126,9 @@
       <c r="B13" s="1">
         <v>0.56083086053412501</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.69760479041916201</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3886,6 +5137,9 @@
       <c r="B14" s="1">
         <v>0.65191740412979304</v>
       </c>
+      <c r="C14" s="1">
+        <v>0.70746268656716405</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3894,6 +5148,9 @@
       <c r="B15" s="1">
         <v>0.55917159763313595</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.68955223880597005</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3902,16 +5159,24 @@
       <c r="B16" s="1">
         <v>0.84565916398713803</v>
       </c>
+      <c r="C16" s="1">
+        <v>0.91104294478527603</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0.46902654867256599</v>
       </c>
+      <c r="C17" s="1">
+        <v>0.495522388059702</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PostCC/CompAnalysisCC.xlsx
+++ b/PostCC/CompAnalysisCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/My PhD Work/Data Analysis/postQ/PostCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317A860F-5CDD-E247-9976-EF05A5A28BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9800F-8D4B-1C49-A821-94B24572B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,100 +837,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>Q22post</c:v>
+                  <c:v>Q08</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Q08post</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q22</c:v>
+                  <c:v>Q09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q15post</c:v>
+                  <c:v>Q09Post</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q17</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q08</c:v>
+                  <c:v>Q10post</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q17post</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q12post</c:v>
+                  <c:v>Q11post</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Q12</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Q12post</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q13post</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14Post</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Q15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q20post</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q19post</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q21post</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q10post</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q20</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Q09Post</c:v>
+                  <c:v>Q15post</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q16post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q17post</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Q18post</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Q09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Q11post</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Q16post</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Q13post</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q19</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Q19post</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q20post</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Q21</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>Q14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>Q21post</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q22post</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Q24post</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Q24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Q13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Q11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Q14Post</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Q16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -942,52 +942,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.91104294478527603</c:v>
+                  <c:v>0.76261127596439204</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88269794721407602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84565916398713803</c:v>
+                  <c:v>0.59643916913946604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79598662207357895</c:v>
+                  <c:v>0.62706270627062699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78041543026706195</c:v>
+                  <c:v>0.61654135338345895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76261127596439204</c:v>
+                  <c:v>0.68686868686868696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76119402985074602</c:v>
+                  <c:v>0.41297935103244798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73053892215568905</c:v>
+                  <c:v>0.58507462686567202</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.72566371681415898</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.73053892215568905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41839762611275999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57014925373134295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53958944281524901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35451505016722401</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.71935483870967698</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70746268656716405</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.69760479041916201</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.68955223880597005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.68686868686868696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65191740412979304</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.62706270627062699</c:v>
+                  <c:v>0.79598662207357895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,100 +1042,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>Q22post</c:v>
+                  <c:v>Q08</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Q08post</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q22</c:v>
+                  <c:v>Q09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q15post</c:v>
+                  <c:v>Q09Post</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q17</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q08</c:v>
+                  <c:v>Q10post</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q17post</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q12post</c:v>
+                  <c:v>Q11post</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Q12</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Q12post</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q13post</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14Post</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Q15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q20post</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q19post</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q21post</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q10post</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q20</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Q09Post</c:v>
+                  <c:v>Q15post</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q16post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q17post</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Q18post</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Q09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Q11post</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Q16post</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Q13post</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q19</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Q19post</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Q20post</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Q21</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>Q14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>Q21post</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Q22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Q22post</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Q24</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Q24post</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Q24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Q13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Q11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Q14Post</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Q16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1147,52 +1147,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.33827893175074197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57611940298507502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78041543026706195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76119402985074602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.61791044776119397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61654135338345895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59643916913946604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58507462686567202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57611940298507502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57014925373134295</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.56083086053412501</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.69760479041916201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65191740412979304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70746268656716405</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.55917159763313595</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53958944281524901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>0.68955223880597005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84565916398713803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91104294478527603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46902654867256599</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.495522388059702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.46902654867256599</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.41839762611275999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.41297935103244798</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.35451505016722401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.33827893175074197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,7 +3506,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F1" activeCellId="3" sqref="A1:A1048576 D1:D1048576 E1:E1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3557,25 +3557,25 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D2" s="1">
-        <v>0.91104294478527603</v>
+        <v>0.76261127596439204</v>
       </c>
       <c r="E2" s="1">
-        <v>0.28511938335626302</v>
+        <v>0.42611514092420499</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0.82656826568265696</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>-2.8744596178117798</v>
+        <v>-1.22892612287853</v>
       </c>
       <c r="M2" s="1">
-        <v>6.28181566716591</v>
+        <v>-0.49117167769894299</v>
       </c>
       <c r="N2" s="1">
-        <v>1.5791302137788302E-2</v>
+        <v>2.3211970801744801E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3645,28 +3645,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D4" s="1">
-        <v>0.84565916398713803</v>
+        <v>0.59643916913946604</v>
       </c>
       <c r="E4" s="1">
-        <v>0.36185739425725899</v>
+        <v>0.43341022784893901</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1">
-        <v>0.93172690763052202</v>
+        <v>0.61992619926199299</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -3678,36 +3678,36 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.9043287504855699</v>
+        <v>-0.38043422869489002</v>
       </c>
       <c r="M4" s="1">
-        <v>1.6317457446135299</v>
+        <v>-1.5672012042646599</v>
       </c>
       <c r="N4" s="1">
-        <v>2.0519050342084798E-2</v>
+        <v>2.36093595082945E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D5" s="1">
-        <v>0.79598662207357895</v>
+        <v>0.62706270627062699</v>
       </c>
       <c r="E5" s="1">
-        <v>0.40365438048017399</v>
+        <v>0.484385614162127</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0.86721991701244805</v>
+        <v>0.65843621399176999</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -3722,36 +3722,36 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>-1.4616301198550401</v>
+        <v>-0.52290304956356104</v>
       </c>
       <c r="M5" s="1">
-        <v>0.13685383165176199</v>
+        <v>-1.7322567792433401</v>
       </c>
       <c r="N5" s="1">
-        <v>2.33439355585267E-2</v>
+        <v>2.7827226452469801E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1">
-        <v>0.78041543026706195</v>
+        <v>0.61654135338345895</v>
       </c>
       <c r="E6" s="1">
-        <v>0.41458076156092499</v>
+        <v>0.48714500590071802</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0.84870848708487101</v>
+        <v>0.644859813084112</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -3766,36 +3766,36 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>-1.3487521029655301</v>
+        <v>-0.476668041706092</v>
       </c>
       <c r="M6" s="1">
-        <v>-0.181379593593713</v>
+        <v>-1.7794348365655299</v>
       </c>
       <c r="N6" s="1">
-        <v>2.2583653121185501E-2</v>
+        <v>2.9868776715136599E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1">
-        <v>0.76261127596439204</v>
+        <v>0.68686868686868696</v>
       </c>
       <c r="E7" s="1">
-        <v>0.42611514092420499</v>
+        <v>0.46455001432215598</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0.82656826568265696</v>
+        <v>0.73221757322175696</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -3810,36 +3810,36 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>-1.22892612287853</v>
+        <v>-0.80180602143587099</v>
       </c>
       <c r="M7" s="1">
-        <v>-0.49117167769894299</v>
+        <v>-1.3616578385520199</v>
       </c>
       <c r="N7" s="1">
-        <v>2.3211970801744801E-2</v>
+        <v>2.69559258557956E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D8" s="1">
-        <v>0.76119402985074602</v>
+        <v>0.41297935103244798</v>
       </c>
       <c r="E8" s="1">
-        <v>0.42699171340617798</v>
+        <v>0.493096996037649</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.82527881040892204</v>
+        <v>0.39194139194139199</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -3854,36 +3854,36 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>-1.2197629977508699</v>
+        <v>0.35191433565892899</v>
       </c>
       <c r="M8" s="1">
-        <v>-0.51368491170136998</v>
+        <v>-1.8816809022644401</v>
       </c>
       <c r="N8" s="1">
-        <v>2.3329049428053202E-2</v>
+        <v>2.67813526186895E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1">
-        <v>0.73053892215568905</v>
+        <v>0.58507462686567202</v>
       </c>
       <c r="E9" s="1">
-        <v>0.44434553214133898</v>
+        <v>0.49344618867789802</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0.787313432835821</v>
+        <v>0.60594795539033497</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>-1.0345493281057601</v>
+        <v>-0.34378894680648697</v>
       </c>
       <c r="M9" s="1">
-        <v>-0.93247265653242495</v>
+        <v>-1.88741653384663</v>
       </c>
       <c r="N9" s="1">
-        <v>2.4313505766889201E-2</v>
+        <v>2.69598452717527E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,25 +3953,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
       <c r="C11">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="D11" s="1">
-        <v>0.71935483870967698</v>
+        <v>0.73053892215568905</v>
       </c>
       <c r="E11" s="1">
-        <v>0.450040886196305</v>
+        <v>0.44434553214133898</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0.77419354838709697</v>
+        <v>0.787313432835821</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -3986,36 +3986,36 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>-0.97167723716730303</v>
+        <v>-1.0345493281057601</v>
       </c>
       <c r="M11" s="1">
-        <v>-1.05922903069727</v>
+        <v>-0.93247265653242495</v>
       </c>
       <c r="N11" s="1">
-        <v>2.5560604721022801E-2</v>
+        <v>2.4313505766889201E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D12" s="1">
-        <v>0.70746268656716405</v>
+        <v>0.41839762611275999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.403322070392651</v>
+        <v>0.49402963666070698</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.75836431226765799</v>
+        <v>0.398523985239852</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -4030,36 +4030,36 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>-0.88410905267808704</v>
+        <v>0.32937388491300301</v>
       </c>
       <c r="M12" s="1">
-        <v>-0.89481040941990397</v>
+        <v>-1.8971158783778099</v>
       </c>
       <c r="N12" s="1">
-        <v>2.2035838683043599E-2</v>
+        <v>2.69115091205001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1">
-        <v>0.69760479041916201</v>
+        <v>0.57014925373134295</v>
       </c>
       <c r="E13" s="1">
-        <v>0.459984605540599</v>
+        <v>0.49579517132392897</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0.74626865671641796</v>
+        <v>0.58736059479553904</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -4074,39 +4074,39 @@
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.85660762093801701</v>
+        <v>-0.28213204572838002</v>
       </c>
       <c r="M13" s="1">
-        <v>-1.2699989102131599</v>
+        <v>-1.9261244285203101</v>
       </c>
       <c r="N13" s="1">
-        <v>2.5169237790229899E-2</v>
+        <v>2.7088183903473999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D14" s="1">
-        <v>0.68955223880597005</v>
+        <v>0.53958944281524901</v>
       </c>
       <c r="E14" s="1">
-        <v>0.413881266912698</v>
+        <v>0.47809530960331398</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="1">
-        <v>0.73605947955390305</v>
+        <v>0.54945054945054905</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4118,36 +4118,36 @@
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>-0.79751538015577395</v>
+        <v>-0.15769082438415899</v>
       </c>
       <c r="M14" s="1">
-        <v>-1.0765319556689199</v>
+        <v>-1.8908120649799101</v>
       </c>
       <c r="N14" s="1">
-        <v>2.2612749217376001E-2</v>
+        <v>2.58903125637212E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D15" s="1">
-        <v>0.68686868686868696</v>
+        <v>0.35451505016722401</v>
       </c>
       <c r="E15" s="1">
-        <v>0.46455001432215598</v>
+        <v>0.47916805938537699</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0.73221757322175696</v>
+        <v>0.31950207468879699</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -4162,36 +4162,36 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>-0.80180602143587099</v>
+        <v>0.60520886254477102</v>
       </c>
       <c r="M15" s="1">
-        <v>-1.3616578385520199</v>
+        <v>-1.6391708903262501</v>
       </c>
       <c r="N15" s="1">
-        <v>2.69559258557956E-2</v>
+        <v>2.7711004366385E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="D16" s="1">
-        <v>0.65191740412979304</v>
+        <v>0.71935483870967698</v>
       </c>
       <c r="E16" s="1">
-        <v>0.41753805654179299</v>
+        <v>0.450040886196305</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0.68864468864468897</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -4206,36 +4206,36 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>-0.61472179475541899</v>
+        <v>-0.97167723716730303</v>
       </c>
       <c r="M16" s="1">
-        <v>-1.2952205688681</v>
+        <v>-1.05922903069727</v>
       </c>
       <c r="N16" s="1">
-        <v>2.2677554342907202E-2</v>
+        <v>2.5560604721022801E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D17" s="1">
-        <v>0.62706270627062699</v>
+        <v>0.79598662207357895</v>
       </c>
       <c r="E17" s="1">
-        <v>0.484385614162127</v>
+        <v>0.40365438048017399</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0.65843621399176999</v>
+        <v>0.86721991701244805</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -4250,36 +4250,36 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>-0.52290304956356104</v>
+        <v>-1.4616301198550401</v>
       </c>
       <c r="M17" s="1">
-        <v>-1.7322567792433401</v>
+        <v>0.13685383165176199</v>
       </c>
       <c r="N17" s="1">
-        <v>2.7827226452469801E-2</v>
+        <v>2.33439355585267E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D18" s="1">
-        <v>0.61791044776119397</v>
+        <v>0.33827893175074197</v>
       </c>
       <c r="E18" s="1">
-        <v>0.48662511642170098</v>
+        <v>0.47382750584875899</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.64684014869888495</v>
+        <v>0.29889298892988903</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -4294,36 +4294,36 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>-0.48315827649745002</v>
+        <v>0.68059022232114896</v>
       </c>
       <c r="M18" s="1">
-        <v>-1.77182039053058</v>
+        <v>-1.54134428165391</v>
       </c>
       <c r="N18" s="1">
-        <v>2.6587170283407499E-2</v>
+        <v>2.5811028932157299E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D19" s="1">
-        <v>0.61654135338345895</v>
+        <v>0.57611940298507502</v>
       </c>
       <c r="E19" s="1">
-        <v>0.48714500590071802</v>
+        <v>0.49491109473143302</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0.644859813084112</v>
+        <v>0.59479553903345705</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -4338,39 +4338,39 @@
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>-0.476668041706092</v>
+        <v>-0.30669015786681902</v>
       </c>
       <c r="M19" s="1">
-        <v>-1.7794348365655299</v>
+        <v>-1.9116207723187</v>
       </c>
       <c r="N19" s="1">
-        <v>2.9868776715136599E-2</v>
+        <v>2.7039881639338698E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>337</v>
       </c>
       <c r="D20" s="1">
-        <v>0.59643916913946604</v>
+        <v>0.78041543026706195</v>
       </c>
       <c r="E20" s="1">
-        <v>0.43341022784893901</v>
+        <v>0.41458076156092499</v>
       </c>
       <c r="F20" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0.61992619926199299</v>
+        <v>0.84870848708487101</v>
       </c>
       <c r="H20" s="1">
-        <v>0.74129999999999996</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -4382,36 +4382,36 @@
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>-0.38043422869489002</v>
+        <v>-1.3487521029655301</v>
       </c>
       <c r="M20" s="1">
-        <v>-1.5672012042646599</v>
+        <v>-0.181379593593713</v>
       </c>
       <c r="N20" s="1">
-        <v>2.36093595082945E-2</v>
+        <v>2.2583653121185501E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>335</v>
       </c>
       <c r="D21" s="1">
-        <v>0.58507462686567202</v>
+        <v>0.76119402985074602</v>
       </c>
       <c r="E21" s="1">
-        <v>0.49344618867789802</v>
+        <v>0.42699171340617798</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0.60594795539033497</v>
+        <v>0.82527881040892204</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -4426,39 +4426,39 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>-0.34378894680648697</v>
+        <v>-1.2197629977508699</v>
       </c>
       <c r="M21" s="1">
-        <v>-1.88741653384663</v>
+        <v>-0.51368491170136998</v>
       </c>
       <c r="N21" s="1">
-        <v>2.69598452717527E-2</v>
+        <v>2.3329049428053202E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D22" s="1">
-        <v>0.57611940298507502</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.49491109473143302</v>
+        <v>0.50074571256947997</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="1">
-        <v>0.59479553903345705</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -4470,36 +4470,36 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>-0.30669015786681902</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>-1.9116207723187</v>
+        <v>-2.0059435232426299</v>
       </c>
       <c r="N22" s="1">
-        <v>2.7039881639338698E-2</v>
+        <v>2.73179182354076E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>335</v>
       </c>
       <c r="D23" s="1">
-        <v>0.57014925373134295</v>
+        <v>0.61791044776119397</v>
       </c>
       <c r="E23" s="1">
-        <v>0.49579517132392897</v>
+        <v>0.48662511642170098</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0.58736059479553904</v>
+        <v>0.64684014869888495</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>-0.28213204572838002</v>
+        <v>-0.48315827649745002</v>
       </c>
       <c r="M23" s="1">
-        <v>-1.9261244285203101</v>
+        <v>-1.77182039053058</v>
       </c>
       <c r="N23" s="1">
-        <v>2.7088183903473999E-2</v>
+        <v>2.6587170283407499E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4569,28 +4569,28 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>14</v>
-      </c>
       <c r="C25">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D25" s="1">
-        <v>0.55917159763313595</v>
+        <v>0.69760479041916201</v>
       </c>
       <c r="E25" s="1">
-        <v>0.45188877615607798</v>
+        <v>0.459984605540599</v>
       </c>
       <c r="F25" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0.57352941176470595</v>
+        <v>0.74626865671641796</v>
       </c>
       <c r="H25" s="1">
-        <v>0.74129999999999996</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -4602,39 +4602,39 @@
         <v>1</v>
       </c>
       <c r="L25" s="1">
-        <v>-0.23360216957613</v>
+        <v>-0.85660762093801701</v>
       </c>
       <c r="M25" s="1">
-        <v>-1.73887326990975</v>
+        <v>-1.2699989102131599</v>
       </c>
       <c r="N25" s="1">
-        <v>2.4579509074004E-2</v>
+        <v>2.5169237790229899E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D26" s="1">
-        <v>0.53958944281524901</v>
+        <v>0.65191740412979304</v>
       </c>
       <c r="E26" s="1">
-        <v>0.47809530960331398</v>
+        <v>0.41753805654179299</v>
       </c>
       <c r="F26" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0.54945054945054905</v>
+        <v>0.68864468864468897</v>
       </c>
       <c r="H26" s="1">
-        <v>0.74129999999999996</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -4646,39 +4646,39 @@
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>-0.15769082438415899</v>
+        <v>-0.61472179475541899</v>
       </c>
       <c r="M26" s="1">
-        <v>-1.8908120649799101</v>
+        <v>-1.2952205688681</v>
       </c>
       <c r="N26" s="1">
-        <v>2.58903125637212E-2</v>
+        <v>2.2677554342907202E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27" s="1">
-        <v>0.5</v>
+        <v>0.70746268656716405</v>
       </c>
       <c r="E27" s="1">
-        <v>0.50074571256947997</v>
+        <v>0.403322070392651</v>
       </c>
       <c r="F27" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0.5</v>
+        <v>0.75836431226765799</v>
       </c>
       <c r="H27" s="1">
-        <v>0.74129999999999996</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -4690,39 +4690,39 @@
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>-0.88410905267808704</v>
       </c>
       <c r="M27" s="1">
-        <v>-2.0059435232426299</v>
+        <v>-0.89481040941990397</v>
       </c>
       <c r="N27" s="1">
-        <v>2.73179182354076E-2</v>
+        <v>2.2035838683043599E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D28" s="1">
-        <v>0.495522388059702</v>
+        <v>0.55917159763313595</v>
       </c>
       <c r="E28" s="1">
-        <v>0.50072786417209902</v>
+        <v>0.45188877615607798</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="1">
-        <v>0.49442379182156099</v>
+        <v>0.57352941176470595</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -4734,36 +4734,36 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>1.7831026607188102E-2</v>
+        <v>-0.23360216957613</v>
       </c>
       <c r="M28" s="1">
-        <v>-2.0056423411406699</v>
+        <v>-1.73887326990975</v>
       </c>
       <c r="N28" s="1">
-        <v>2.73576857032874E-2</v>
+        <v>2.4579509074004E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
       <c r="C29">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D29" s="1">
-        <v>0.46902654867256599</v>
+        <v>0.68955223880597005</v>
       </c>
       <c r="E29" s="1">
-        <v>0.49977740240611601</v>
+        <v>0.413881266912698</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0.46153846153846201</v>
+        <v>0.73605947955390305</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -4778,36 +4778,36 @@
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>0.123583355572682</v>
+        <v>-0.79751538015577395</v>
       </c>
       <c r="M29" s="1">
-        <v>-1.99057297167609</v>
+        <v>-1.0765319556689199</v>
       </c>
       <c r="N29" s="1">
-        <v>2.7144182487919499E-2</v>
+        <v>2.2612749217376001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D30" s="1">
-        <v>0.41839762611275999</v>
+        <v>0.84565916398713803</v>
       </c>
       <c r="E30" s="1">
-        <v>0.49402963666070698</v>
+        <v>0.36185739425725899</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>0.398523985239852</v>
+        <v>0.93172690763052202</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -4822,36 +4822,36 @@
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0.32937388491300301</v>
+        <v>-1.9043287504855699</v>
       </c>
       <c r="M30" s="1">
-        <v>-1.8971158783778099</v>
+        <v>1.6317457446135299</v>
       </c>
       <c r="N30" s="1">
-        <v>2.69115091205001E-2</v>
+        <v>2.0519050342084798E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D31" s="1">
-        <v>0.41297935103244798</v>
+        <v>0.91104294478527603</v>
       </c>
       <c r="E31" s="1">
-        <v>0.493096996037649</v>
+        <v>0.28511938335626302</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0.39194139194139199</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -4866,36 +4866,36 @@
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>0.35191433565892899</v>
+        <v>-2.8744596178117798</v>
       </c>
       <c r="M31" s="1">
-        <v>-1.8816809022644401</v>
+        <v>6.28181566716591</v>
       </c>
       <c r="N31" s="1">
-        <v>2.67813526186895E-2</v>
+        <v>1.5791302137788302E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D32" s="1">
-        <v>0.35451505016722401</v>
+        <v>0.46902654867256599</v>
       </c>
       <c r="E32" s="1">
-        <v>0.47916805938537699</v>
+        <v>0.49977740240611601</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31950207468879699</v>
+        <v>0.46153846153846201</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -4910,36 +4910,36 @@
         <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>0.60520886254477102</v>
+        <v>0.123583355572682</v>
       </c>
       <c r="M32" s="1">
-        <v>-1.6391708903262501</v>
+        <v>-1.99057297167609</v>
       </c>
       <c r="N32" s="1">
-        <v>2.7711004366385E-2</v>
+        <v>2.7144182487919499E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D33" s="1">
-        <v>0.33827893175074197</v>
+        <v>0.495522388059702</v>
       </c>
       <c r="E33" s="1">
-        <v>0.47382750584875899</v>
+        <v>0.50072786417209902</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0.29889298892988903</v>
+        <v>0.49442379182156099</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -4954,19 +4954,19 @@
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0.68059022232114896</v>
+        <v>1.7831026607188102E-2</v>
       </c>
       <c r="M33" s="1">
-        <v>-1.54134428165391</v>
+        <v>-2.0056423411406699</v>
       </c>
       <c r="N33" s="1">
-        <v>2.5811028932157299E-2</v>
+        <v>2.73576857032874E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N33" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N33">
-      <sortCondition descending="1" ref="D1:D33"/>
+      <sortCondition ref="A1:A33"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N33">
@@ -4981,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
